--- a/data/trans_dic/P42-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P42-Dificultad-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.8723829243985678</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8142088070420547</v>
+        <v>0.8142088070420546</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7720355520968608</v>
+        <v>0.7715540398668793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8621894680353055</v>
+        <v>0.8603215591253791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8535677739961092</v>
+        <v>0.8519446130349976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7730672364330551</v>
+        <v>0.778523006298661</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8231885726310152</v>
+        <v>0.8231935615303978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9020892365068856</v>
+        <v>0.9026780922024099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8915973267313702</v>
+        <v>0.8900293032926101</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8488095003119741</v>
+        <v>0.8459498065103138</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7539310875672043</v>
+        <v>0.7554040376760259</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8347533718294645</v>
+        <v>0.8347646767466114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.855060155735445</v>
+        <v>0.8535944505399644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7986332947796961</v>
+        <v>0.79694728952476</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8051392071992267</v>
+        <v>0.804339777710108</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8772884821214185</v>
+        <v>0.8770116331840709</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8958661084309953</v>
+        <v>0.8958515815632808</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8533966573826647</v>
+        <v>0.8487819085947477</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7556529807845338</v>
+        <v>0.756911835831433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8496847069739996</v>
+        <v>0.8506285821676656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8355355945744189</v>
+        <v>0.8361067940108801</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8066532658022371</v>
+        <v>0.7995078479410481</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.808351821233786</v>
+        <v>0.8087704790951808</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8941186836294072</v>
+        <v>0.8941874213394549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8867873268385785</v>
+        <v>0.8865902385668953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8587214548496611</v>
+        <v>0.8567203640244739</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7911789749498637</v>
+        <v>0.7972398353940185</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8319202069753401</v>
+        <v>0.8346597115071466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8412540200767699</v>
+        <v>0.8436491367653817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8414245554474515</v>
+        <v>0.844665674622215</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8701846334801924</v>
+        <v>0.8737539374701701</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8981708958006612</v>
+        <v>0.9002053783449987</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9020402820885559</v>
+        <v>0.9016002243821545</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9007742953676067</v>
+        <v>0.901158635631323</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.8717721143164734</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8361858971923509</v>
+        <v>0.8361858971923511</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7766253481272347</v>
+        <v>0.7783587010630713</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8590524346808452</v>
+        <v>0.8588724978585903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8602682371955039</v>
+        <v>0.8607937823932361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8203192276621042</v>
+        <v>0.8217344473908728</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8058441800279357</v>
+        <v>0.805952655207371</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8821636749329667</v>
+        <v>0.8816135191847779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8827181878595467</v>
+        <v>0.8825982504833436</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.850495315951337</v>
+        <v>0.8502790265976435</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>711055</v>
+        <v>710611</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>959088</v>
+        <v>957011</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1067999</v>
+        <v>1065968</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>400103</v>
+        <v>402927</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>758167</v>
+        <v>758172</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1003472</v>
+        <v>1004127</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1115583</v>
+        <v>1113621</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>439304</v>
+        <v>437824</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>795107</v>
+        <v>796660</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>905382</v>
+        <v>905394</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>855162</v>
+        <v>853696</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>678077</v>
+        <v>676646</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>849112</v>
+        <v>848269</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>951516</v>
+        <v>951216</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>895973</v>
+        <v>895958</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>724574</v>
+        <v>720656</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>745362</v>
+        <v>746603</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>742530</v>
+        <v>743355</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>638705</v>
+        <v>639142</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>611570</v>
+        <v>606152</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>797343</v>
+        <v>797756</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>781360</v>
+        <v>781421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>677883</v>
+        <v>677733</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>651046</v>
+        <v>649529</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>268233</v>
+        <v>270287</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>374963</v>
+        <v>376198</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>406815</v>
+        <v>407974</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>545676</v>
+        <v>547778</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>295018</v>
+        <v>296228</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>404824</v>
+        <v>405741</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>436210</v>
+        <v>435998</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>584165</v>
+        <v>584414</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2563669</v>
+        <v>2569391</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3025244</v>
+        <v>3024611</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3010375</v>
+        <v>3012214</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2274968</v>
+        <v>2278893</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2660121</v>
+        <v>2660480</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3106633</v>
+        <v>3104695</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3088935</v>
+        <v>3088516</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2358655</v>
+        <v>2358055</v>
       </c>
     </row>
     <row r="24">
